--- a/biology/Zoologie/Disonycha_pensylvanica/Disonycha_pensylvanica.xlsx
+++ b/biology/Zoologie/Disonycha_pensylvanica/Disonycha_pensylvanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Disonycha pensylvanica est une espèce de coléoptères de la famille des Chrysomelidae qui se rencontre du centre jusqu'à l'Est de l'Amérique du Nord, notamment aux abords des plans d'eau.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Disonycha pensylvanica a été décrite en 1807 par Johann Illiger sous le protonyme d’Haltica pensylvanica[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Disonycha pensylvanica a été décrite en 1807 par Johann Illiger sous le protonyme d’Haltica pensylvanica.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Disonycha pensylvanica peut atteindre de 5 à 6,5 mm de long, ou plus.
 Sa livrée est beige jaunâtre, ornée de bandes noires. Son pronotum est noir, marginé beige jaunâtre et maculé de chaque côté d'une tache orangeâtre en forme de « U ».
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est commun depuis le Maine jusqu'aux Grands Lacs, de la Floride jusqu'au Texas.
 </t>
@@ -606,7 +624,9 @@
           <t>Cycles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En Alabama, il se rencontre de mai à août.
 </t>
@@ -637,7 +657,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'alimente d'espèces végétales du genre Polygonum.
 </t>
